--- a/ExcelJDBCMysql/src/main/java/created/Email.xlsx
+++ b/ExcelJDBCMysql/src/main/java/created/Email.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>NO</t>
   </si>
@@ -26,40 +26,136 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>arm@gmail.com</t>
-  </si>
-  <si>
-    <t>armin</t>
-  </si>
-  <si>
-    <t>eren</t>
-  </si>
-  <si>
-    <t>yeager@gmail.com</t>
-  </si>
-  <si>
-    <t>eren yeager</t>
-  </si>
-  <si>
-    <t>levi</t>
-  </si>
-  <si>
-    <t>levi@yahoo.com</t>
-  </si>
-  <si>
-    <t>levi ackerman</t>
-  </si>
-  <si>
-    <t>mika</t>
-  </si>
-  <si>
-    <t>mikasa@yahoo.com</t>
-  </si>
-  <si>
-    <t>mikasa ackerman</t>
+    <t>Anni</t>
+  </si>
+  <si>
+    <t>Annie Leonhart</t>
+  </si>
+  <si>
+    <t>annie.leonhart@outlook.com</t>
+  </si>
+  <si>
+    <t>Arm1</t>
+  </si>
+  <si>
+    <t>armin.arlert@outlook.com</t>
+  </si>
+  <si>
+    <t>Armin Arlert</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Bertolt Hoover</t>
+  </si>
+  <si>
+    <t>bertolt.hoover@gmail.com</t>
+  </si>
+  <si>
+    <t>Con4</t>
+  </si>
+  <si>
+    <t>connie.springer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Connie Springer</t>
+  </si>
+  <si>
+    <t>Ere4</t>
+  </si>
+  <si>
+    <t>eren.yeager@gmail.com</t>
+  </si>
+  <si>
+    <t>Eren Yeager</t>
+  </si>
+  <si>
+    <t>Erw17</t>
+  </si>
+  <si>
+    <t>erwin.smith@yahoo.com</t>
+  </si>
+  <si>
+    <t>Erwin Smith</t>
+  </si>
+  <si>
+    <t>Han1</t>
+  </si>
+  <si>
+    <t>hange.zoe@outlook.com</t>
+  </si>
+  <si>
+    <t>Hange Zoë</t>
+  </si>
+  <si>
+    <t>His1</t>
+  </si>
+  <si>
+    <t>historia.reiss@gmail.com</t>
+  </si>
+  <si>
+    <t>Historia Reiss</t>
+  </si>
+  <si>
+    <t>Jea15</t>
+  </si>
+  <si>
+    <t>jean.kirstein@gmail.com</t>
+  </si>
+  <si>
+    <t>Jean Kirstein</t>
+  </si>
+  <si>
+    <t>Lev6</t>
+  </si>
+  <si>
+    <t>levi.ackerman@gmail.com</t>
+  </si>
+  <si>
+    <t>Levi Ackerman</t>
+  </si>
+  <si>
+    <t>Mik2</t>
+  </si>
+  <si>
+    <t>mikasa.ackerman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mikasa Ackerman</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>Reiner Braun</t>
+  </si>
+  <si>
+    <t>reiner.braun@outlook.com</t>
+  </si>
+  <si>
+    <t>Sas1</t>
+  </si>
+  <si>
+    <t>sasha.blouse@outlook.com</t>
+  </si>
+  <si>
+    <t>Sasha Blouse</t>
+  </si>
+  <si>
+    <t>Ymir</t>
+  </si>
+  <si>
+    <t>ymir@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zeke</t>
+  </si>
+  <si>
+    <t>Zeke Yeager</t>
+  </si>
+  <si>
+    <t>zeke.yeager@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -112,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,6 +284,160 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExcelJDBCMysql/src/main/java/created/Email.xlsx
+++ b/ExcelJDBCMysql/src/main/java/created/Email.xlsx
@@ -26,136 +26,136 @@
     <t>NAME</t>
   </si>
   <si>
+    <t>Ere4</t>
+  </si>
+  <si>
+    <t>eren.yeager@gmail.com</t>
+  </si>
+  <si>
+    <t>Eren Yeager</t>
+  </si>
+  <si>
+    <t>Mik2</t>
+  </si>
+  <si>
+    <t>mikasa.ackerman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mikasa Ackerman</t>
+  </si>
+  <si>
+    <t>Arm1</t>
+  </si>
+  <si>
+    <t>armin.arlert@outlook.com</t>
+  </si>
+  <si>
+    <t>Armin Arlert</t>
+  </si>
+  <si>
+    <t>Lev6</t>
+  </si>
+  <si>
+    <t>levi.ackerman@gmail.com</t>
+  </si>
+  <si>
+    <t>Levi Ackerman</t>
+  </si>
+  <si>
+    <t>Erw17</t>
+  </si>
+  <si>
+    <t>erwin.smith@yahoo.com</t>
+  </si>
+  <si>
+    <t>Erwin Smith</t>
+  </si>
+  <si>
+    <t>Han1</t>
+  </si>
+  <si>
+    <t>hange.zoe@outlook.com</t>
+  </si>
+  <si>
+    <t>Hange Zoë</t>
+  </si>
+  <si>
+    <t>Jea15</t>
+  </si>
+  <si>
+    <t>jean.kirstein@gmail.com</t>
+  </si>
+  <si>
+    <t>Jean Kirstein</t>
+  </si>
+  <si>
+    <t>Con4</t>
+  </si>
+  <si>
+    <t>connie.springer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Connie Springer</t>
+  </si>
+  <si>
+    <t>Sas1</t>
+  </si>
+  <si>
+    <t>sasha.blouse@outlook.com</t>
+  </si>
+  <si>
+    <t>Sasha Blouse</t>
+  </si>
+  <si>
+    <t>His1</t>
+  </si>
+  <si>
+    <t>historia.reiss@gmail.com</t>
+  </si>
+  <si>
+    <t>Historia Reiss</t>
+  </si>
+  <si>
+    <t>Ymir</t>
+  </si>
+  <si>
+    <t>ymir@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>reiner.braun@outlook.com</t>
+  </si>
+  <si>
+    <t>Reiner Braun</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>bertolt.hoover@gmail.com</t>
+  </si>
+  <si>
+    <t>Bertolt Hoover</t>
+  </si>
+  <si>
+    <t>Zeke</t>
+  </si>
+  <si>
+    <t>zeke.yeager@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zeke Yeager</t>
+  </si>
+  <si>
     <t>Anni</t>
   </si>
   <si>
+    <t>annie.leonhart@outlook.com</t>
+  </si>
+  <si>
     <t>Annie Leonhart</t>
-  </si>
-  <si>
-    <t>annie.leonhart@outlook.com</t>
-  </si>
-  <si>
-    <t>Arm1</t>
-  </si>
-  <si>
-    <t>armin.arlert@outlook.com</t>
-  </si>
-  <si>
-    <t>Armin Arlert</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>Bertolt Hoover</t>
-  </si>
-  <si>
-    <t>bertolt.hoover@gmail.com</t>
-  </si>
-  <si>
-    <t>Con4</t>
-  </si>
-  <si>
-    <t>connie.springer@yahoo.com</t>
-  </si>
-  <si>
-    <t>Connie Springer</t>
-  </si>
-  <si>
-    <t>Ere4</t>
-  </si>
-  <si>
-    <t>eren.yeager@gmail.com</t>
-  </si>
-  <si>
-    <t>Eren Yeager</t>
-  </si>
-  <si>
-    <t>Erw17</t>
-  </si>
-  <si>
-    <t>erwin.smith@yahoo.com</t>
-  </si>
-  <si>
-    <t>Erwin Smith</t>
-  </si>
-  <si>
-    <t>Han1</t>
-  </si>
-  <si>
-    <t>hange.zoe@outlook.com</t>
-  </si>
-  <si>
-    <t>Hange Zoë</t>
-  </si>
-  <si>
-    <t>His1</t>
-  </si>
-  <si>
-    <t>historia.reiss@gmail.com</t>
-  </si>
-  <si>
-    <t>Historia Reiss</t>
-  </si>
-  <si>
-    <t>Jea15</t>
-  </si>
-  <si>
-    <t>jean.kirstein@gmail.com</t>
-  </si>
-  <si>
-    <t>Jean Kirstein</t>
-  </si>
-  <si>
-    <t>Lev6</t>
-  </si>
-  <si>
-    <t>levi.ackerman@gmail.com</t>
-  </si>
-  <si>
-    <t>Levi Ackerman</t>
-  </si>
-  <si>
-    <t>Mik2</t>
-  </si>
-  <si>
-    <t>mikasa.ackerman@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mikasa Ackerman</t>
-  </si>
-  <si>
-    <t>Rein</t>
-  </si>
-  <si>
-    <t>Reiner Braun</t>
-  </si>
-  <si>
-    <t>reiner.braun@outlook.com</t>
-  </si>
-  <si>
-    <t>Sas1</t>
-  </si>
-  <si>
-    <t>sasha.blouse@outlook.com</t>
-  </si>
-  <si>
-    <t>Sasha Blouse</t>
-  </si>
-  <si>
-    <t>Ymir</t>
-  </si>
-  <si>
-    <t>ymir@yahoo.com</t>
-  </si>
-  <si>
-    <t>Zeke</t>
-  </si>
-  <si>
-    <t>Zeke Yeager</t>
-  </si>
-  <si>
-    <t>zeke.yeager@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -387,13 +387,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="D13" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -401,13 +401,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="D14" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -415,7 +415,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>43</v>
